--- a/distributedscheduling/resultados/high high/hihi_32_1024_100_NewMetrics.xlsx
+++ b/distributedscheduling/resultados/high high/hihi_32_1024_100_NewMetrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Estudos\TCC\git\distributedscheduling\resultados\high high\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157957DE-2F1F-4C94-B06B-93C1CF072F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15478088-26AF-4845-8357-3EA66CDB3F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>Heuristica</t>
   </si>
@@ -1287,7 +1287,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:tint val="58000"/>
+                  <a:shade val="44000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1308,7 +1308,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:tint val="86000"/>
+                  <a:shade val="58000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1329,7 +1329,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:tint val="72000"/>
+                  <a:shade val="72000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1349,7 +1349,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1368,9 +1370,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="72000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1390,7 +1390,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:shade val="86000"/>
+                  <a:tint val="86000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1411,7 +1411,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:shade val="44000"/>
+                  <a:tint val="72000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1432,7 +1432,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:tint val="44000"/>
+                  <a:tint val="58000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1453,7 +1453,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:shade val="58000"/>
+                  <a:tint val="44000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1473,31 +1473,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>MinVar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sufferage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MinMin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MCT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MET</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>MaxMin</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCT</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MET</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MinMax</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MinMean</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MinMin</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MinVar</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>OLB</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sufferage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1509,31 +1509,31 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99855020101292091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98524243445110782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98231252931450275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.974030111868601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95390640502331547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94696641366376755</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.81423312848340457</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95390640502331547</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94696641366376755</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.974030111868601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98524243445110782</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98231252931450275</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99855020101292091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,31 +2302,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>MinVar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sufferage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MinMean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MinMin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MinMax</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MCT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MET</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>MaxMin</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCT</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MET</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MinMax</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MinMean</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MinMin</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MinVar</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>OLB</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sufferage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2338,31 +2338,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.6739999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10.885</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5846,7 +5846,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E45BF4D3-F4BD-429A-83F0-9AA6726A84DA}" name="Tabela2" displayName="Tabela2" ref="A13:E22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A13:E22" xr:uid="{E45BF4D3-F4BD-429A-83F0-9AA6726A84DA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:E22">
-    <sortCondition ref="A13:A22"/>
+    <sortCondition ref="B13:B22"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2DC74DCC-560C-46A3-97F8-214ED0A30501}" name="Heuristica" dataDxfId="18"/>
@@ -5908,6 +5908,21 @@
     <tableColumn id="2" xr3:uid="{2DC599D9-D2AA-45C2-9181-20FEF5F78A36}" name="Heuristic ETC/MET ETC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{41955515-1C85-4EA3-87C6-E375AA5A33D3}" name="Tabela4" displayName="Tabela4" ref="A75:C84" totalsRowShown="0">
+  <autoFilter ref="A75:C84" xr:uid="{41955515-1C85-4EA3-87C6-E375AA5A33D3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A76:C84">
+    <sortCondition ref="B75:B84"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F0C14B2C-D8F6-4130-975E-4983709D8753}" name="Heuristica"/>
+    <tableColumn id="2" xr3:uid="{5395BAFB-CB31-4534-9014-B818D619DF90}" name="Tempo computacional médio"/>
+    <tableColumn id="3" xr3:uid="{8EA9C84D-8973-4722-AF9B-D674BAF23664}" name="Desvio Padrão Tempo computacional"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6177,14 +6192,14 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="11" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="26" style="11" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
@@ -6562,164 +6577,164 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="11">
-        <v>11732422.836999999</v>
+        <v>5122174.5839999998</v>
       </c>
       <c r="C14" s="12">
-        <v>3.857E-2</v>
+        <v>4.5330000000000002E-2</v>
       </c>
       <c r="D14" s="6">
-        <f>-((B14-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>0.81423312848340457</v>
+        <f t="shared" ref="D14:D22" si="0">-((B14-$B$24)*2/($B$25-$B$24)-1)</f>
+        <v>1</v>
       </c>
       <c r="E14" s="11">
-        <v>1.6739999999999999</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B15" s="11">
-        <v>6762349.1919999998</v>
+        <v>5173763.6059999997</v>
       </c>
       <c r="C15" s="12">
-        <v>4.9820000000000003E-2</v>
+        <v>5.3839999999999999E-2</v>
       </c>
       <c r="D15" s="6">
-        <f>-((B15-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>0.95390640502331547</v>
+        <f t="shared" si="0"/>
+        <v>0.99855020101292091</v>
       </c>
       <c r="E15" s="11">
-        <v>0.96499999999999997</v>
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11">
-        <v>7009298.852</v>
+        <v>5647301.4330000002</v>
       </c>
       <c r="C16" s="12">
-        <v>8.6800000000000002E-2</v>
+        <v>6.0359999999999997E-2</v>
       </c>
       <c r="D16" s="6">
-        <f>-((B16-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>0.94696641366376755</v>
+        <f t="shared" si="0"/>
+        <v>0.98524243445110782</v>
       </c>
       <c r="E16" s="11">
-        <v>1</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11">
-        <v>6046275.8849999998</v>
+        <v>5751557.9139999999</v>
       </c>
       <c r="C17" s="12">
-        <v>4.4350000000000001E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="D17" s="6">
-        <f>-((B17-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>0.974030111868601</v>
+        <f t="shared" si="0"/>
+        <v>0.98231252931450275</v>
       </c>
       <c r="E17" s="11">
-        <v>0.86299999999999999</v>
+        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>5647301.4330000002</v>
+        <v>6046275.8849999998</v>
       </c>
       <c r="C18" s="12">
-        <v>6.0359999999999997E-2</v>
+        <v>4.4350000000000001E-2</v>
       </c>
       <c r="D18" s="6">
-        <f>-((B18-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>0.98524243445110782</v>
+        <f t="shared" si="0"/>
+        <v>0.974030111868601</v>
       </c>
       <c r="E18" s="11">
-        <v>0.80600000000000005</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="11">
-        <v>5751557.9139999999</v>
+        <v>6762349.1919999998</v>
       </c>
       <c r="C19" s="12">
-        <v>6.2799999999999995E-2</v>
+        <v>4.9820000000000003E-2</v>
       </c>
       <c r="D19" s="6">
-        <f>-((B19-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>0.98231252931450275</v>
+        <f t="shared" si="0"/>
+        <v>0.95390640502331547</v>
       </c>
       <c r="E19" s="11">
-        <v>0.82099999999999995</v>
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" s="11">
-        <v>5122174.5839999998</v>
+        <v>7009298.852</v>
       </c>
       <c r="C20" s="12">
-        <v>4.5330000000000002E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="D20" s="6">
-        <f>-((B20-$B$24)*2/($B$25-$B$24)-1)</f>
+        <f t="shared" si="0"/>
+        <v>0.94696641366376755</v>
+      </c>
+      <c r="E20" s="11">
         <v>1</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="11">
-        <v>76289312.180000007</v>
+        <v>11732422.836999999</v>
       </c>
       <c r="C21" s="12">
-        <v>2.9139999999999999E-2</v>
+        <v>3.857E-2</v>
       </c>
       <c r="D21" s="6">
-        <f>-((B21-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>0.81423312848340457</v>
       </c>
       <c r="E21" s="11">
-        <v>10.885</v>
+        <v>1.6739999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="11">
-        <v>5173763.6059999997</v>
+        <v>76289312.180000007</v>
       </c>
       <c r="C22" s="12">
-        <v>5.3839999999999999E-2</v>
+        <v>2.9139999999999999E-2</v>
       </c>
       <c r="D22" s="6">
-        <f>-((B22-$B$24)*2/($B$25-$B$24)-1)</f>
-        <v>0.99855020101292091</v>
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
       <c r="E22" s="11">
-        <v>0.73899999999999999</v>
+        <v>10.885</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6848,11 +6863,11 @@
         <v>3.9280000000000002E-2</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43:D51" si="0">-((B43-$B$53)*2/($B$54-$B$53)-1)</f>
+        <f t="shared" ref="D43:D51" si="1">-((B43-$B$53)*2/($B$54-$B$53)-1)</f>
         <v>1</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" ref="E43:E51" si="1">(B43/B$43)</f>
+        <f t="shared" ref="E43:E51" si="2">(B43/B$43)</f>
         <v>1</v>
       </c>
     </row>
@@ -6867,11 +6882,11 @@
         <v>3.8800000000000001E-2</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99461118107096991</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0416476149833269</v>
       </c>
     </row>
@@ -6886,11 +6901,11 @@
         <v>3.9660000000000001E-2</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99043278015268854</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0739404856442973</v>
       </c>
     </row>
@@ -6905,11 +6920,11 @@
         <v>4.079E-2</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98782897933406277</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0940640220658331</v>
       </c>
     </row>
@@ -6924,11 +6939,11 @@
         <v>4.1820000000000003E-2</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98396241000395157</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1239468948970777</v>
       </c>
     </row>
@@ -6943,11 +6958,11 @@
         <v>4.5319999999999999E-2</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95094460816815141</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3791257599810969</v>
       </c>
     </row>
@@ -6962,11 +6977,11 @@
         <v>3.9280000000000002E-2</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94726854223860757</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4075363227599285</v>
       </c>
     </row>
@@ -6981,11 +6996,11 @@
         <v>4.3020000000000003E-2</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78177960683520098</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6865214874966066</v>
       </c>
     </row>
@@ -7000,11 +7015,11 @@
         <v>2.6110000000000001E-2</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.457047465063948</v>
       </c>
     </row>
@@ -7182,66 +7197,143 @@
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>0.13</v>
+      </c>
+      <c r="C77">
+        <v>2.8063799999999999</v>
+      </c>
       <c r="D77"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>0.23</v>
+      </c>
+      <c r="C78">
+        <v>2.02583</v>
+      </c>
       <c r="D78"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.29065999999999997</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <v>20.16</v>
+      </c>
+      <c r="C80">
+        <v>0.50797999999999999</v>
+      </c>
       <c r="D80"/>
       <c r="E80"/>
     </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>20.47</v>
+      </c>
+      <c r="C81">
+        <v>0.29607</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>37.76</v>
+      </c>
+      <c r="C82">
+        <v>0.26282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="C83">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>68.06</v>
+      </c>
+      <c r="C84">
+        <v>0.15690999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>